--- a/biology/Botanique/Square_des_Grès/Square_des_Grès.xlsx
+++ b/biology/Botanique/Square_des_Grès/Square_des_Grès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_des_Gr%C3%A8s</t>
+          <t>Square_des_Grès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square des Grès est un espace vert accessible par la place des Grès dans le quartier de Charonne du 20e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_des_Gr%C3%A8s</t>
+          <t>Square_des_Grès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square des Grès est desservi à proximité par la ligne 3 à la station Porte de Bagnolet.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_des_Gr%C3%A8s</t>
+          <t>Square_des_Grès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom fait référence à un ancien dépôt de pavés. On appelait autrefois « grès » les pavés taillés dans du grès de Fontainebleau.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_des_Gr%C3%A8s</t>
+          <t>Square_des_Grès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Moyen Âge, cet emplacement était occupé par le poteau de justice des seigneurs de Charonne. On y rendait seulement la justice avant que le condamné soit emmené plus loin, au nord de la commune, à l'emplacement de l'actuelle rue de la Justice, pour y être exécuté par pendaison ou décapitation.
 </t>
